--- a/docs/school/WorkLog-PiersenSchuiling.xlsx
+++ b/docs/school/WorkLog-PiersenSchuiling.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t xml:space="preserve">Work Log for Computer Applications Practicum</t>
   </si>
@@ -146,6 +146,21 @@
   </si>
   <si>
     <t xml:space="preserve">Fixing graph.loadMap() function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing Car’s ability to get random destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added vertices to RoadSegment objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Established the drive() FSM structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Began implementing Breadth-First Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created Class diagrams</t>
   </si>
 </sst>
 </file>
@@ -507,8 +522,8 @@
   </sheetPr>
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,7 +568,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -578,7 +593,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>45555</v>
       </c>
@@ -601,7 +616,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
         <v>45556</v>
       </c>
@@ -624,7 +639,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
         <v>45561</v>
       </c>
@@ -743,7 +758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
         <v>45555</v>
       </c>
@@ -760,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
         <v>45556</v>
       </c>
@@ -777,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
         <v>45561</v>
       </c>
@@ -811,7 +826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <v>45566</v>
       </c>
@@ -828,7 +843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="n">
         <v>45573</v>
       </c>
@@ -1271,19 +1286,89 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13"/>
+      <c r="A47" s="13" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B47" s="17" t="n">
+        <v>0.822916666666667</v>
+      </c>
+      <c r="C47" s="17" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13"/>
+      <c r="A48" s="13" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B48" s="17" t="n">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="C48" s="17" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13"/>
+      <c r="A49" s="13" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B49" s="17" t="n">
+        <v>0.951388888888889</v>
+      </c>
+      <c r="C49" s="17" t="n">
+        <v>0.972222222222222</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13"/>
+      <c r="A50" s="13" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B50" s="17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C50" s="17" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13"/>
+      <c r="A51" s="13" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B51" s="17" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C51" s="17" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13"/>

--- a/docs/school/WorkLog-PiersenSchuiling.xlsx
+++ b/docs/school/WorkLog-PiersenSchuiling.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t xml:space="preserve">Work Log for Computer Applications Practicum</t>
   </si>
@@ -161,6 +161,24 @@
   </si>
   <si>
     <t xml:space="preserve">Created Class diagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixing issues with FSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing Breadth-First Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS and correct class member functions for use with BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revered changes to member functions – previous corrections were redundant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added nextDestination functions to MovableEntity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with Dr. Wilson - help with BFS</t>
   </si>
 </sst>
 </file>
@@ -256,7 +274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,6 +353,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -522,11 +544,11 @@
   </sheetPr>
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F57" activeCellId="0" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.63"/>
@@ -568,7 +590,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -593,7 +615,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>45555</v>
       </c>
@@ -616,7 +638,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
         <v>45556</v>
       </c>
@@ -639,7 +661,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
         <v>45561</v>
       </c>
@@ -656,7 +678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
         <v>45562</v>
       </c>
@@ -690,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
         <v>45539</v>
       </c>
@@ -707,7 +729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
         <v>45541</v>
       </c>
@@ -724,7 +746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
         <v>45542</v>
       </c>
@@ -741,7 +763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
         <v>45544</v>
       </c>
@@ -758,7 +780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
         <v>45555</v>
       </c>
@@ -775,7 +797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
         <v>45556</v>
       </c>
@@ -792,7 +814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
         <v>45561</v>
       </c>
@@ -809,7 +831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
         <v>45562</v>
       </c>
@@ -826,7 +848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <v>45566</v>
       </c>
@@ -843,7 +865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="n">
         <v>45573</v>
       </c>
@@ -860,7 +882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
         <v>45576</v>
       </c>
@@ -1355,7 +1377,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="n">
-        <v>45365</v>
+        <v>45730</v>
       </c>
       <c r="B51" s="17" t="n">
         <v>0.833333333333333</v>
@@ -1371,22 +1393,106 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13"/>
+      <c r="A52" s="13" t="n">
+        <v>45731</v>
+      </c>
+      <c r="B52" s="17" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="C52" s="17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="20" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13"/>
+      <c r="A53" s="13" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B53" s="17" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C53" s="17" t="n">
+        <v>0.739583333333333</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13"/>
+      <c r="A54" s="13" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B54" s="17" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C54" s="17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13"/>
+      <c r="A55" s="13" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B55" s="17" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C55" s="17" t="n">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>0.00694444444444444</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13"/>
+      <c r="A56" s="13" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B56" s="17" t="n">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="C56" s="17" t="n">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13"/>
+      <c r="A57" s="13" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B57" s="17" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="C57" s="17" t="n">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>0.00694444444444444</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13"/>

--- a/docs/school/WorkLog-PiersenSchuiling.xlsx
+++ b/docs/school/WorkLog-PiersenSchuiling.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t xml:space="preserve">Work Log for Computer Applications Practicum</t>
   </si>
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t xml:space="preserve">Meeting with Dr. Wilson - help with BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding pathfinding to cars (Simulator.cpp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up car to incorporate BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correcting findPath function for threads and fixing SFML dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixing issues with struct and Graph class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing plan document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">began implementing Test::followPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing Test::followPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding list of edges to road segments</t>
   </si>
 </sst>
 </file>
@@ -544,8 +568,8 @@
   </sheetPr>
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F57" activeCellId="0" sqref="F57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1495,34 +1519,174 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13"/>
+      <c r="A58" s="13" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B58" s="17" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C58" s="17" t="n">
+        <v>0.895833333333333</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13"/>
+      <c r="A59" s="13" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B59" s="17" t="n">
+        <v>0.430555555555556</v>
+      </c>
+      <c r="C59" s="17" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13"/>
+      <c r="A60" s="13" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B60" s="17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C60" s="17" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13"/>
+      <c r="A61" s="13" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B61" s="17" t="n">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="C61" s="17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13"/>
+      <c r="A62" s="13" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B62" s="17" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="C62" s="17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13"/>
+      <c r="A63" s="13" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B63" s="17" t="n">
+        <v>0.927083333333333</v>
+      </c>
+      <c r="C63" s="17" t="n">
+        <v>0.947916666666667</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13"/>
+      <c r="A64" s="13" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B64" s="17" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C64" s="17" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13"/>
+      <c r="A65" s="13" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B65" s="17" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C65" s="17" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13"/>
+      <c r="A66" s="13" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B66" s="17" t="n">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="C66" s="17" t="n">
+        <v>0.322916666666667</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>0.0520833333333333</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13"/>
+      <c r="A67" s="13" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B67" s="17" t="n">
+        <v>0.760416666666667</v>
+      </c>
+      <c r="C67" s="17" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>0.0520833333333333</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13"/>

--- a/docs/school/WorkLog-PiersenSchuiling.xlsx
+++ b/docs/school/WorkLog-PiersenSchuiling.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t xml:space="preserve">Work Log for Computer Applications Practicum</t>
   </si>
@@ -203,6 +203,21 @@
   </si>
   <si>
     <t xml:space="preserve">Adding list of edges to road segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding seg fault in Test::followPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuring project for Windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correcting incident edges to detect proper edge and road segment in Test::followPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finishing final tests and filling out Test Results Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finishing Testing Document, User Documentation, and remaining final submissions</t>
   </si>
 </sst>
 </file>
@@ -568,11 +583,11 @@
   </sheetPr>
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N66" activeCellId="0" sqref="N66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.63"/>
@@ -614,7 +629,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -639,7 +654,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>45555</v>
       </c>
@@ -662,7 +677,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
         <v>45556</v>
       </c>
@@ -685,7 +700,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
         <v>45561</v>
       </c>
@@ -702,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
         <v>45562</v>
       </c>
@@ -736,7 +751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
         <v>45539</v>
       </c>
@@ -753,7 +768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
         <v>45541</v>
       </c>
@@ -770,7 +785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
         <v>45542</v>
       </c>
@@ -787,7 +802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
         <v>45544</v>
       </c>
@@ -804,7 +819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
         <v>45555</v>
       </c>
@@ -821,7 +836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
         <v>45556</v>
       </c>
@@ -838,7 +853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
         <v>45561</v>
       </c>
@@ -855,7 +870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
         <v>45562</v>
       </c>
@@ -872,7 +887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="n">
         <v>45566</v>
       </c>
@@ -889,7 +904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="n">
         <v>45573</v>
       </c>
@@ -906,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
         <v>45576</v>
       </c>
@@ -1689,22 +1704,106 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13"/>
+      <c r="A68" s="13" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B68" s="17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C68" s="17" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13"/>
+      <c r="A69" s="13" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B69" s="17" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C69" s="17" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13"/>
+      <c r="A70" s="13" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B70" s="17" t="n">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C70" s="17" t="n">
+        <v>0.822916666666667</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13"/>
+      <c r="A71" s="13" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B71" s="17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C71" s="17" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13"/>
+      <c r="A72" s="13" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B72" s="17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C72" s="17" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13"/>
+      <c r="A73" s="13" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B73" s="17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="C73" s="17" t="n">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13"/>
